--- a/Team_C_Algorithm_Project/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Team_C_Algorithm_Project/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -153,187 +153,187 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>호호행성에서 사는 7개의 호호 부족은 서로를 도우며 행복하게 살고 있었지요</t>
+  </si>
+  <si>
+    <t>하지만 어느날</t>
+  </si>
+  <si>
+    <t>호호행성의 하늘에 무언가가 다가왔습니다.</t>
+  </si>
+  <si>
+    <t>그것들은 크고 검었으며 이상한 소리를 내며 점점 호호행성으로 다가왔지요</t>
+  </si>
+  <si>
+    <t>그리고 이상한 물체들에서 생명체들이 내렸습니다.</t>
+  </si>
+  <si>
+    <t>그 생명체들은 자신들을 인간이라고 소개하며 호호족들에게 친철하게 말을 걸었습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그들은 자신들이 먼 행성에서 온 과학자이며 연구를 하기위해 우주를 돌아다니다 호호 행성을 반견했고 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 아름다운 호호 행성을 보고 연구를 하고 싶다고 했습니다.</t>
+  </si>
+  <si>
+    <t>자신들과 다른 행성이 신기하다고 하며 말이죠</t>
+  </si>
+  <si>
+    <t>마음씨 착한 호호족들은 7부족끼리 회의를 열고 인간들을 환영했어요</t>
+  </si>
+  <si>
+    <t>하지만 누가 알았을까요 인간들이 사실은 자신들의 행성자원을 훔치기 위해 이곳에 왔다는 것을</t>
+  </si>
+  <si>
+    <t>호호 부족들도 모르는 사이 조금씩 하지만 빠르게 행성은 망가지기 시작했습니다.</t>
+  </si>
+  <si>
+    <t>그리고 이내 주황 호호 부족장이 인간들을 의심하기 시작했습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주황 호호 부족장은 인간들이 온 이후 숲속의 동물들이 점점 사라지고 </t>
+  </si>
+  <si>
+    <t>공기가 달라졌다는 것을 눈치챘습니다.</t>
+  </si>
+  <si>
+    <t>하지만 아직 심증만 있었기 때문에 주황호호 부족장은 인간들을 감시하기로 마음을 먹었습니다.</t>
+  </si>
+  <si>
+    <t>그래서 주황 부족에서 가장 용감한 호리를 보내 인간들이 무엇을 꾸미고 있는지 확인하기로 했지요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">호리야 </t>
+  </si>
+  <si>
+    <t>네 족장님!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">요즘 인간들의 움직임이 심상치가 않아 </t>
+  </si>
+  <si>
+    <t>어쩌면 그들에게 처음부터 그들을 이 행성에 들이는게 안됬다는 생각이 들어….</t>
+  </si>
+  <si>
+    <t>호리 니가 인간들을 감시하여 무엇을 꾸미고 있는지 알려주렴</t>
+  </si>
+  <si>
+    <t>네 걱정 마세요 족장님!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">믿음직스럽구나 허허허 </t>
+  </si>
+  <si>
+    <t>하지만 만약 조금이라도 우리 행성과 부족에게 해가 될 낌세가 보인다면 바로 나에게 말해주렴….</t>
+  </si>
+  <si>
+    <t>네! 걱정 마세요 족장님!!!</t>
+  </si>
+  <si>
+    <t>그럼 다녀오겠습니다</t>
+  </si>
+  <si>
+    <t>으으으 너무 아팠어</t>
+  </si>
+  <si>
+    <t>대체 저건 뭐지?</t>
+  </si>
+  <si>
+    <t>예전에는 저런게 없었는데….</t>
+  </si>
+  <si>
+    <t>일단 족장님께 말씀드리러 가야겠어!</t>
+  </si>
+  <si>
+    <t>그럼 일단 부족으로 돌아가야… 저건 뭐지!</t>
+  </si>
+  <si>
+    <t>위이이이이이이이잉</t>
+  </si>
+  <si>
+    <t>헉헉 인간들 도대체 뭘 하고 다니는 거야…</t>
+  </si>
+  <si>
+    <t>저 날라다니는 것들…. 위험했어……</t>
+  </si>
+  <si>
+    <t>부족이 위험할 수도 있으니 어서 돌아가서 알려드려야해!</t>
+  </si>
+  <si>
+    <t>인간들이 이상한 걸 만들고 그게 우리 부족을 공격한다는 것을!</t>
+  </si>
+  <si>
+    <t>삐삐</t>
+  </si>
+  <si>
+    <t>무슨 소리지?</t>
+  </si>
+  <si>
+    <t>삐빅 자 자원 삐 자원의 채굴을 시작합니다……</t>
+  </si>
+  <si>
+    <t>자원? 채굴? 이게 다 무슨…</t>
+  </si>
+  <si>
+    <t>가까이 가서 알아봐야겠어</t>
+  </si>
+  <si>
+    <t>헉!!!</t>
+  </si>
+  <si>
+    <t>저 저게 도대체 뭐야?!</t>
+  </si>
+  <si>
+    <t>삐유유웁 삐빅 인간이 아닌 다른 생명체 발견 발견</t>
+  </si>
+  <si>
+    <t>지금부터 제거 모드에 들어갑니다.</t>
+  </si>
+  <si>
+    <t>뭐?</t>
+  </si>
+  <si>
+    <t>헉헉 ㄷ드디어 물리쳤다.</t>
+  </si>
+  <si>
+    <t>그리고 확실히 알았어...인간들은 우리를 공격하려는 거야</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어서 부족원들에게 알려야겠어 그리고 다른 부족에게도 </t>
+  </si>
+  <si>
+    <t>주황 호호부족 마을</t>
+  </si>
+  <si>
+    <t>족장님!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">호리야 돌아왔구나 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">네 족장님의 말씀이 옳았어요 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">잘은 모르겠지만 인간들이 만든 물체들은 저희를 공격하고 행성을 다치게 하고 있어요!  </t>
+  </si>
+  <si>
+    <t>슬프게도 내 예상이 맞았구나….</t>
+  </si>
+  <si>
+    <t>네…</t>
+  </si>
+  <si>
+    <t>호리야 어서 다른 부족들에게도 알려야 한다.</t>
+  </si>
+  <si>
+    <t>일이 잘못되면 우리 행성에 전쟁이 일어날지도 모르겠구나….</t>
+  </si>
+  <si>
+    <t>to be continued</t>
+  </si>
+  <si>
     <t xml:space="preserve">지구에서 몇 광년 떨어진 곳에 아름다운 호호행성이 있었습니다. </t>
-  </si>
-  <si>
-    <t>호호행성에서 사는 7개의 호호 부족은 서로를 도우며 행복하게 살고 있었지요</t>
-  </si>
-  <si>
-    <t>하지만 어느날</t>
-  </si>
-  <si>
-    <t>호호행성의 하늘에 무언가가 다가왔습니다.</t>
-  </si>
-  <si>
-    <t>그것들은 크고 검었으며 이상한 소리를 내며 점점 호호행성으로 다가왔지요</t>
-  </si>
-  <si>
-    <t>그리고 이상한 물체들에서 생명체들이 내렸습니다.</t>
-  </si>
-  <si>
-    <t>그 생명체들은 자신들을 인간이라고 소개하며 호호족들에게 친철하게 말을 걸었습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그들은 자신들이 먼 행성에서 온 과학자이며 연구를 하기위해 우주를 돌아다니다 호호 행성을 반견했고 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 아름다운 호호 행성을 보고 연구를 하고 싶다고 했습니다.</t>
-  </si>
-  <si>
-    <t>자신들과 다른 행성이 신기하다고 하며 말이죠</t>
-  </si>
-  <si>
-    <t>마음씨 착한 호호족들은 7부족끼리 회의를 열고 인간들을 환영했어요</t>
-  </si>
-  <si>
-    <t>하지만 누가 알았을까요 인간들이 사실은 자신들의 행성자원을 훔치기 위해 이곳에 왔다는 것을</t>
-  </si>
-  <si>
-    <t>호호 부족들도 모르는 사이 조금씩 하지만 빠르게 행성은 망가지기 시작했습니다.</t>
-  </si>
-  <si>
-    <t>그리고 이내 주황 호호 부족장이 인간들을 의심하기 시작했습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">주황 호호 부족장은 인간들이 온 이후 숲속의 동물들이 점점 사라지고 </t>
-  </si>
-  <si>
-    <t>공기가 달라졌다는 것을 눈치챘습니다.</t>
-  </si>
-  <si>
-    <t>하지만 아직 심증만 있었기 때문에 주황호호 부족장은 인간들을 감시하기로 마음을 먹었습니다.</t>
-  </si>
-  <si>
-    <t>그래서 주황 부족에서 가장 용감한 호리를 보내 인간들이 무엇을 꾸미고 있는지 확인하기로 했지요</t>
-  </si>
-  <si>
-    <t xml:space="preserve">호리야 </t>
-  </si>
-  <si>
-    <t>네 족장님!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">요즘 인간들의 움직임이 심상치가 않아 </t>
-  </si>
-  <si>
-    <t>어쩌면 그들에게 처음부터 그들을 이 행성에 들이는게 안됬다는 생각이 들어….</t>
-  </si>
-  <si>
-    <t>호리 니가 인간들을 감시하여 무엇을 꾸미고 있는지 알려주렴</t>
-  </si>
-  <si>
-    <t>네 걱정 마세요 족장님!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">믿음직스럽구나 허허허 </t>
-  </si>
-  <si>
-    <t>하지만 만약 조금이라도 우리 행성과 부족에게 해가 될 낌세가 보인다면 바로 나에게 말해주렴….</t>
-  </si>
-  <si>
-    <t>네! 걱정 마세요 족장님!!!</t>
-  </si>
-  <si>
-    <t>그럼 다녀오겠습니다</t>
-  </si>
-  <si>
-    <t>으으으 너무 아팠어</t>
-  </si>
-  <si>
-    <t>대체 저건 뭐지?</t>
-  </si>
-  <si>
-    <t>예전에는 저런게 없었는데….</t>
-  </si>
-  <si>
-    <t>일단 족장님께 말씀드리러 가야겠어!</t>
-  </si>
-  <si>
-    <t>그럼 일단 부족으로 돌아가야… 저건 뭐지!</t>
-  </si>
-  <si>
-    <t>위이이이이이이이잉</t>
-  </si>
-  <si>
-    <t>헉헉 인간들 도대체 뭘 하고 다니는 거야…</t>
-  </si>
-  <si>
-    <t>저 날라다니는 것들…. 위험했어……</t>
-  </si>
-  <si>
-    <t>부족이 위험할 수도 있으니 어서 돌아가서 알려드려야해!</t>
-  </si>
-  <si>
-    <t>인간들이 이상한 걸 만들고 그게 우리 부족을 공격한다는 것을!</t>
-  </si>
-  <si>
-    <t>삐삐</t>
-  </si>
-  <si>
-    <t>무슨 소리지?</t>
-  </si>
-  <si>
-    <t>삐빅 자 자원 삐 자원의 채굴을 시작합니다……</t>
-  </si>
-  <si>
-    <t>자원? 채굴? 이게 다 무슨…</t>
-  </si>
-  <si>
-    <t>가까이 가서 알아봐야겠어</t>
-  </si>
-  <si>
-    <t>헉!!!</t>
-  </si>
-  <si>
-    <t>저 저게 도대체 뭐야?!</t>
-  </si>
-  <si>
-    <t>삐유유웁 삐빅 인간이 아닌 다른 생명체 발견 발견</t>
-  </si>
-  <si>
-    <t>지금부터 제거 모드에 들어갑니다.</t>
-  </si>
-  <si>
-    <t>뭐?</t>
-  </si>
-  <si>
-    <t>헉헉 ㄷ드디어 물리쳤다.</t>
-  </si>
-  <si>
-    <t>그리고 확실히 알았어...인간들은 우리를 공격하려는 거야</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어서 부족원들에게 알려야겠어 그리고 다른 부족에게도 </t>
-  </si>
-  <si>
-    <t>주황 호호부족 마을</t>
-  </si>
-  <si>
-    <t>족장님!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">호리야 돌아왔구나 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">네 족장님의 말씀이 옳았어요 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">잘은 모르겠지만 인간들이 만든 물체들은 저희를 공격하고 행성을 다치게 하고 있어요!  </t>
-  </si>
-  <si>
-    <t>슬프게도 내 예상이 맞았구나….</t>
-  </si>
-  <si>
-    <t>네…</t>
-  </si>
-  <si>
-    <t>호리야 어서 다른 부족들에게도 알려야 한다.</t>
-  </si>
-  <si>
-    <t>일이 잘못되면 우리 행성에 전쟁이 일어날지도 모르겠구나….</t>
-  </si>
-  <si>
-    <t>to be continued</t>
   </si>
 </sst>
 </file>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -731,7 +731,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
@@ -763,7 +763,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>33</v>
@@ -795,7 +795,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>32</v>
@@ -827,7 +827,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>33</v>
@@ -859,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>32</v>
@@ -891,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>33</v>
@@ -923,7 +923,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>32</v>
@@ -955,7 +955,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>33</v>
@@ -987,7 +987,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>32</v>
@@ -1019,7 +1019,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>33</v>
@@ -1051,7 +1051,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>32</v>
@@ -1083,7 +1083,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>33</v>
@@ -1115,7 +1115,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>32</v>
@@ -1147,7 +1147,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>33</v>
@@ -1179,7 +1179,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>32</v>
@@ -1211,7 +1211,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>33</v>
@@ -1243,7 +1243,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>32</v>
@@ -1275,7 +1275,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>28</v>
@@ -1307,7 +1307,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>28</v>
@@ -1339,7 +1339,7 @@
         <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>28</v>
@@ -1371,7 +1371,7 @@
         <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>28</v>
@@ -1403,7 +1403,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>28</v>
@@ -1435,7 +1435,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>28</v>
@@ -1467,7 +1467,7 @@
         <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>28</v>
@@ -1499,7 +1499,7 @@
         <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>28</v>
@@ -1531,7 +1531,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>28</v>
@@ -1563,7 +1563,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>28</v>
@@ -1595,7 +1595,7 @@
         <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>28</v>
@@ -1627,7 +1627,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>28</v>
@@ -1659,7 +1659,7 @@
         <v>27</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>28</v>
@@ -1691,7 +1691,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>28</v>
@@ -1723,7 +1723,7 @@
         <v>27</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>28</v>
@@ -1755,7 +1755,7 @@
         <v>27</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>28</v>
@@ -1787,7 +1787,7 @@
         <v>27</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>28</v>
@@ -1819,7 +1819,7 @@
         <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>28</v>
@@ -1851,7 +1851,7 @@
         <v>27</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>28</v>
@@ -1883,7 +1883,7 @@
         <v>27</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>28</v>
@@ -1915,7 +1915,7 @@
         <v>27</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>28</v>
@@ -1947,7 +1947,7 @@
         <v>27</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>28</v>
@@ -1979,7 +1979,7 @@
         <v>27</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>28</v>
@@ -2011,7 +2011,7 @@
         <v>27</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>28</v>
@@ -2043,7 +2043,7 @@
         <v>27</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>28</v>
@@ -2075,7 +2075,7 @@
         <v>27</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>28</v>
@@ -2107,7 +2107,7 @@
         <v>27</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>28</v>
@@ -2139,7 +2139,7 @@
         <v>27</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>28</v>
@@ -2171,7 +2171,7 @@
         <v>27</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>28</v>
@@ -2203,7 +2203,7 @@
         <v>27</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>28</v>
@@ -2235,7 +2235,7 @@
         <v>27</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>28</v>
@@ -2267,7 +2267,7 @@
         <v>27</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>28</v>
@@ -2299,7 +2299,7 @@
         <v>27</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>28</v>
@@ -2331,7 +2331,7 @@
         <v>27</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>28</v>
@@ -2363,7 +2363,7 @@
         <v>27</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>28</v>
@@ -2395,7 +2395,7 @@
         <v>27</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>28</v>
@@ -2427,7 +2427,7 @@
         <v>27</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>28</v>
@@ -2459,7 +2459,7 @@
         <v>27</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>28</v>
@@ -2491,7 +2491,7 @@
         <v>27</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>28</v>
@@ -2523,7 +2523,7 @@
         <v>27</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>28</v>
@@ -2555,7 +2555,7 @@
         <v>27</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>28</v>
@@ -2587,7 +2587,7 @@
         <v>27</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>28</v>
@@ -2619,7 +2619,7 @@
         <v>27</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>28</v>
@@ -2651,7 +2651,7 @@
         <v>27</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>28</v>
@@ -2683,7 +2683,7 @@
         <v>27</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>28</v>

--- a/Team_C_Algorithm_Project/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Team_C_Algorithm_Project/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="106">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,9 +231,6 @@
     <t>네! 걱정 마세요 족장님!!!</t>
   </si>
   <si>
-    <t>그럼 다녀오겠습니다</t>
-  </si>
-  <si>
     <t>으으으 너무 아팠어</t>
   </si>
   <si>
@@ -334,6 +331,37 @@
   </si>
   <si>
     <t xml:space="preserve">지구에서 몇 광년 떨어진 곳에 아름다운 호호행성이 있었습니다. </t>
+  </si>
+  <si>
+    <t>Test_Map0</t>
+  </si>
+  <si>
+    <t>그럼 혹시 모르니 너에게 몸을 지킬 수 있는 방법을 알려주마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WASD를 이용하여 몸을 이동시키고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>space bar를 눌러 여우 구슬을 발사하렴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우 구슬이여? 그게 뭐죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 부족들이 대대로 부족을 지키는 데 이용한 힘이란다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이 힘으로 부족을 지켜주렴 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네! 그럼 다녀오겠습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -673,7 +701,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -731,7 +759,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
@@ -917,7 +945,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -1595,7 +1623,7 @@
         <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>28</v>
@@ -1627,7 +1655,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>28</v>
@@ -1659,7 +1687,7 @@
         <v>27</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>28</v>
@@ -1691,7 +1719,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>28</v>
@@ -1723,7 +1751,7 @@
         <v>27</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>28</v>
@@ -1755,7 +1783,7 @@
         <v>27</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>28</v>
@@ -1787,7 +1815,7 @@
         <v>27</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>28</v>
@@ -1805,7 +1833,7 @@
         <v>-100</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1819,7 +1847,7 @@
         <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>28</v>
@@ -1851,7 +1879,7 @@
         <v>27</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>28</v>
@@ -1883,7 +1911,7 @@
         <v>27</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>28</v>
@@ -1915,7 +1943,7 @@
         <v>27</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>28</v>
@@ -1947,7 +1975,7 @@
         <v>27</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>28</v>
@@ -1979,7 +2007,7 @@
         <v>27</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>28</v>
@@ -2011,7 +2039,7 @@
         <v>27</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>28</v>
@@ -2043,7 +2071,7 @@
         <v>27</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>28</v>
@@ -2075,7 +2103,7 @@
         <v>27</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>28</v>
@@ -2107,7 +2135,7 @@
         <v>27</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>28</v>
@@ -2139,7 +2167,7 @@
         <v>27</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>28</v>
@@ -2171,7 +2199,7 @@
         <v>27</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>28</v>
@@ -2203,7 +2231,7 @@
         <v>27</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>28</v>
@@ -2235,7 +2263,7 @@
         <v>27</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>28</v>
@@ -2267,7 +2295,7 @@
         <v>27</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>28</v>
@@ -2299,7 +2327,7 @@
         <v>27</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>28</v>
@@ -2331,7 +2359,7 @@
         <v>27</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>28</v>
@@ -2363,7 +2391,7 @@
         <v>27</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>28</v>
@@ -2395,7 +2423,7 @@
         <v>27</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>28</v>
@@ -2427,7 +2455,7 @@
         <v>27</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>28</v>
@@ -2459,7 +2487,7 @@
         <v>27</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>28</v>
@@ -2491,7 +2519,7 @@
         <v>27</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>28</v>
@@ -2523,7 +2551,7 @@
         <v>27</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>28</v>
@@ -2555,7 +2583,7 @@
         <v>27</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>28</v>
@@ -2587,7 +2615,7 @@
         <v>27</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>28</v>
@@ -2619,7 +2647,7 @@
         <v>27</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>28</v>
@@ -2651,7 +2679,7 @@
         <v>27</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>28</v>
@@ -2683,7 +2711,7 @@
         <v>27</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>28</v>
@@ -2695,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="1">
-        <v>-100</v>
+        <v>62</v>
       </c>
       <c r="I63" s="1">
         <v>-100</v>
@@ -2705,24 +2733,199 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>63</v>
+      </c>
+      <c r="I64" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>64</v>
+      </c>
+      <c r="I65" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>65</v>
+      </c>
+      <c r="I66" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>66</v>
+      </c>
+      <c r="I67" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>67</v>
+      </c>
+      <c r="I68" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>-100</v>
+      </c>
+      <c r="I69" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C70" s="1"/>
       <c r="I70" s="1"/>
     </row>
   </sheetData>

--- a/Team_C_Algorithm_Project/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Team_C_Algorithm_Project/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B60170A-2244-4311-B58F-F464224FD83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="107">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,13 +362,17 @@
   </si>
   <si>
     <t>네! 그럼 다녀오겠습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Map1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -697,11 +702,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2217,7 +2222,7 @@
         <v>-100</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">

--- a/Team_C_Algorithm_Project/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Team_C_Algorithm_Project/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B60170A-2244-4311-B58F-F464224FD83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7E0FE5-5A66-4775-A03C-517BD273CDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="87">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,61 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름_002</t>
-  </si>
-  <si>
-    <t>이름_003</t>
-  </si>
-  <si>
-    <t>이름_004</t>
-  </si>
-  <si>
-    <t>이름_005</t>
-  </si>
-  <si>
-    <t>이름_006</t>
-  </si>
-  <si>
-    <t>이름_007</t>
-  </si>
-  <si>
-    <t>이름_008</t>
-  </si>
-  <si>
-    <t>이름_009</t>
-  </si>
-  <si>
-    <t>이름_010</t>
-  </si>
-  <si>
-    <t>이름_011</t>
-  </si>
-  <si>
-    <t>이름_012</t>
-  </si>
-  <si>
-    <t>이름_013</t>
-  </si>
-  <si>
-    <t>이름_014</t>
-  </si>
-  <si>
-    <t>이름_015</t>
-  </si>
-  <si>
-    <t>이름_016</t>
-  </si>
-  <si>
-    <t>이름_017</t>
-  </si>
-  <si>
-    <t>이름_018</t>
-  </si>
-  <si>
     <t>이름_019</t>
   </si>
   <si>
@@ -127,14 +72,6 @@
   </si>
   <si>
     <t>nextScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/00001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/00002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -705,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -738,7 +675,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -747,10 +684,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -760,17 +697,15 @@
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -782,7 +717,7 @@
         <v>-100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -792,17 +727,15 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -814,7 +747,7 @@
         <v>-100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -824,17 +757,15 @@
       <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -846,7 +777,7 @@
         <v>-100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -856,17 +787,15 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -878,7 +807,7 @@
         <v>-100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -888,17 +817,15 @@
       <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -910,7 +837,7 @@
         <v>-100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -920,17 +847,15 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -942,7 +867,7 @@
         <v>-100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -952,17 +877,15 @@
       <c r="B8" s="1">
         <v>0</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -974,7 +897,7 @@
         <v>-100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -984,17 +907,15 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -1006,7 +927,7 @@
         <v>-100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1016,17 +937,15 @@
       <c r="B10" s="1">
         <v>0</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1038,7 +957,7 @@
         <v>-100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1048,17 +967,15 @@
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1070,7 +987,7 @@
         <v>-100</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1080,17 +997,15 @@
       <c r="B12" s="1">
         <v>0</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1102,7 +1017,7 @@
         <v>-100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1112,17 +1027,15 @@
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1134,7 +1047,7 @@
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1144,17 +1057,15 @@
       <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1166,7 +1077,7 @@
         <v>-100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1176,17 +1087,15 @@
       <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1198,7 +1107,7 @@
         <v>-100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1208,17 +1117,15 @@
       <c r="B16" s="1">
         <v>0</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1230,7 +1137,7 @@
         <v>-100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1240,17 +1147,15 @@
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1262,7 +1167,7 @@
         <v>-100</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1272,17 +1177,13 @@
       <c r="B18" s="1">
         <v>0</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1294,7 +1195,7 @@
         <v>-100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1304,17 +1205,15 @@
       <c r="B19" s="1">
         <v>0</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1326,7 +1225,7 @@
         <v>-100</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1337,16 +1236,16 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1358,7 +1257,7 @@
         <v>-100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1369,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1390,7 +1289,7 @@
         <v>-100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1401,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1422,7 +1321,7 @@
         <v>-100</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1433,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1454,7 +1353,7 @@
         <v>-100</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1465,16 +1364,16 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1486,7 +1385,7 @@
         <v>-100</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1497,16 +1396,16 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -1518,7 +1417,7 @@
         <v>-100</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1529,16 +1428,16 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1550,7 +1449,7 @@
         <v>-100</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1561,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -1582,7 +1481,7 @@
         <v>-100</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1593,16 +1492,16 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1614,7 +1513,7 @@
         <v>-100</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1625,16 +1524,16 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -1646,7 +1545,7 @@
         <v>-100</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1657,16 +1556,16 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -1678,7 +1577,7 @@
         <v>-100</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1689,16 +1588,16 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -1710,7 +1609,7 @@
         <v>-100</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1721,16 +1620,16 @@
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -1742,7 +1641,7 @@
         <v>-100</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1753,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -1774,7 +1673,7 @@
         <v>-100</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1785,16 +1684,16 @@
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1806,7 +1705,7 @@
         <v>-100</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1817,16 +1716,16 @@
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -1838,7 +1737,7 @@
         <v>-100</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1849,16 +1748,16 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1870,7 +1769,7 @@
         <v>-100</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -1881,16 +1780,16 @@
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -1902,7 +1801,7 @@
         <v>-100</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -1913,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -1934,7 +1833,7 @@
         <v>-100</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -1945,16 +1844,16 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -1966,7 +1865,7 @@
         <v>-100</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -1977,16 +1876,16 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -1998,7 +1897,7 @@
         <v>-100</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2009,16 +1908,16 @@
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -2030,7 +1929,7 @@
         <v>-100</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2041,16 +1940,16 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -2062,7 +1961,7 @@
         <v>-100</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2073,16 +1972,16 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -2094,7 +1993,7 @@
         <v>-100</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2105,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -2126,7 +2025,7 @@
         <v>-100</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2137,16 +2036,16 @@
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -2158,7 +2057,7 @@
         <v>-100</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2169,16 +2068,16 @@
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -2190,7 +2089,7 @@
         <v>-100</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2201,16 +2100,16 @@
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -2222,7 +2121,7 @@
         <v>-100</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2233,16 +2132,16 @@
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2254,7 +2153,7 @@
         <v>-100</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2265,16 +2164,16 @@
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2286,7 +2185,7 @@
         <v>-100</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2297,16 +2196,16 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2318,7 +2217,7 @@
         <v>-100</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2329,16 +2228,16 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -2350,7 +2249,7 @@
         <v>-100</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2361,16 +2260,16 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2382,7 +2281,7 @@
         <v>-100</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2393,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -2414,7 +2313,7 @@
         <v>-100</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2425,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -2446,7 +2345,7 @@
         <v>-100</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2457,16 +2356,16 @@
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2478,7 +2377,7 @@
         <v>-100</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2489,16 +2388,16 @@
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2510,7 +2409,7 @@
         <v>-100</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -2521,16 +2420,16 @@
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -2542,7 +2441,7 @@
         <v>-100</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -2553,16 +2452,16 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2574,7 +2473,7 @@
         <v>-100</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2585,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2606,7 +2505,7 @@
         <v>-100</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -2617,16 +2516,16 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2638,7 +2537,7 @@
         <v>-100</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -2649,16 +2548,16 @@
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -2670,7 +2569,7 @@
         <v>-100</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -2681,16 +2580,16 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -2702,7 +2601,7 @@
         <v>-100</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -2713,16 +2612,16 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -2734,7 +2633,7 @@
         <v>-100</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -2745,16 +2644,16 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
@@ -2766,7 +2665,7 @@
         <v>-100</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -2777,16 +2676,16 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -2798,7 +2697,7 @@
         <v>-100</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -2809,16 +2708,16 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -2830,7 +2729,7 @@
         <v>-100</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -2841,16 +2740,16 @@
         <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -2862,7 +2761,7 @@
         <v>-100</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -2873,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -2894,7 +2793,7 @@
         <v>-100</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -2905,16 +2804,16 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -2926,7 +2825,7 @@
         <v>-100</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">

--- a/Team_C_Algorithm_Project/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Team_C_Algorithm_Project/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7E0FE5-5A66-4775-A03C-517BD273CDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488D976F-C567-41D2-B7A0-92B9D4D4EB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="88">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,12 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름_019</t>
-  </si>
-  <si>
-    <t>이름_020</t>
-  </si>
-  <si>
     <t>이름_021</t>
   </si>
   <si>
@@ -130,12 +124,6 @@
     <t>그리고 이내 주황 호호 부족장이 인간들을 의심하기 시작했습니다.</t>
   </si>
   <si>
-    <t xml:space="preserve">주황 호호 부족장은 인간들이 온 이후 숲속의 동물들이 점점 사라지고 </t>
-  </si>
-  <si>
-    <t>공기가 달라졌다는 것을 눈치챘습니다.</t>
-  </si>
-  <si>
     <t>하지만 아직 심증만 있었기 때문에 주황호호 부족장은 인간들을 감시하기로 마음을 먹었습니다.</t>
   </si>
   <si>
@@ -178,131 +166,156 @@
     <t>예전에는 저런게 없었는데….</t>
   </si>
   <si>
-    <t>일단 족장님께 말씀드리러 가야겠어!</t>
+    <t>위이이이이이이이잉</t>
+  </si>
+  <si>
+    <t>헉헉 인간들 도대체 뭘 하고 다니는 거야…</t>
+  </si>
+  <si>
+    <t>저 날라다니는 것들…. 위험했어……</t>
+  </si>
+  <si>
+    <t>부족이 위험할 수도 있으니 어서 돌아가서 알려드려야해!</t>
+  </si>
+  <si>
+    <t>인간들이 이상한 걸 만들고 그게 우리 부족을 공격한다는 것을!</t>
+  </si>
+  <si>
+    <t>삐삐</t>
+  </si>
+  <si>
+    <t>무슨 소리지?</t>
+  </si>
+  <si>
+    <t>삐빅 자 자원 삐 자원의 채굴을 시작합니다……</t>
+  </si>
+  <si>
+    <t>자원? 채굴? 이게 다 무슨…</t>
+  </si>
+  <si>
+    <t>가까이 가서 알아봐야겠어</t>
+  </si>
+  <si>
+    <t>헉!!!</t>
+  </si>
+  <si>
+    <t>저 저게 도대체 뭐야?!</t>
+  </si>
+  <si>
+    <t>삐유유웁 삐빅 인간이 아닌 다른 생명체 발견 발견</t>
+  </si>
+  <si>
+    <t>지금부터 제거 모드에 들어갑니다.</t>
+  </si>
+  <si>
+    <t>뭐?</t>
+  </si>
+  <si>
+    <t>헉헉 ㄷ드디어 물리쳤다.</t>
+  </si>
+  <si>
+    <t>그리고 확실히 알았어...인간들은 우리를 공격하려는 거야</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어서 부족원들에게 알려야겠어 그리고 다른 부족에게도 </t>
+  </si>
+  <si>
+    <t>주황 호호부족 마을</t>
+  </si>
+  <si>
+    <t>족장님!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">호리야 돌아왔구나 </t>
+  </si>
+  <si>
+    <t>슬프게도 내 예상이 맞았구나….</t>
+  </si>
+  <si>
+    <t>네…</t>
+  </si>
+  <si>
+    <t>호리야 어서 다른 부족들에게도 알려야 한다.</t>
+  </si>
+  <si>
+    <t>일이 잘못되면 우리 행성에 전쟁이 일어날지도 모르겠구나….</t>
+  </si>
+  <si>
+    <t>to be continued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지구에서 몇 광년 떨어진 곳에 아름다운 호호행성이 있었습니다. </t>
+  </si>
+  <si>
+    <t>그럼 혹시 모르니 너에게 몸을 지킬 수 있는 방법을 알려주마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WASD를 이용하여 몸을 이동시키고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>space bar를 눌러 여우 구슬을 발사하렴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우 구슬이여? 그게 뭐죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 부족들이 대대로 부족을 지키는 데 이용한 힘이란다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이 힘으로 부족을 지켜주렴 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네! 그럼 다녀오겠습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Map1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주황 호호 부족장은 인간들이 온 이후 숲속의 동물들이 점점 사라지자 인간들을 의심했고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲이 미묘하게 달라졌다는 것을 눈치챘습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호호족장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">잘은 모르겠지만 인간들이 만든 물체들은 저희를 공격하고 행성을 다치게 하고 있어요!  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">네 족장님의 말씀이 옳았어요 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 좀 더 살펴보고 족장님께 말씀드리러 가야겠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>그럼 일단 부족으로 돌아가야… 저건 뭐지!</t>
-  </si>
-  <si>
-    <t>위이이이이이이이잉</t>
-  </si>
-  <si>
-    <t>헉헉 인간들 도대체 뭘 하고 다니는 거야…</t>
-  </si>
-  <si>
-    <t>저 날라다니는 것들…. 위험했어……</t>
-  </si>
-  <si>
-    <t>부족이 위험할 수도 있으니 어서 돌아가서 알려드려야해!</t>
-  </si>
-  <si>
-    <t>인간들이 이상한 걸 만들고 그게 우리 부족을 공격한다는 것을!</t>
-  </si>
-  <si>
-    <t>삐삐</t>
-  </si>
-  <si>
-    <t>무슨 소리지?</t>
-  </si>
-  <si>
-    <t>삐빅 자 자원 삐 자원의 채굴을 시작합니다……</t>
-  </si>
-  <si>
-    <t>자원? 채굴? 이게 다 무슨…</t>
-  </si>
-  <si>
-    <t>가까이 가서 알아봐야겠어</t>
-  </si>
-  <si>
-    <t>헉!!!</t>
-  </si>
-  <si>
-    <t>저 저게 도대체 뭐야?!</t>
-  </si>
-  <si>
-    <t>삐유유웁 삐빅 인간이 아닌 다른 생명체 발견 발견</t>
-  </si>
-  <si>
-    <t>지금부터 제거 모드에 들어갑니다.</t>
-  </si>
-  <si>
-    <t>뭐?</t>
-  </si>
-  <si>
-    <t>헉헉 ㄷ드디어 물리쳤다.</t>
-  </si>
-  <si>
-    <t>그리고 확실히 알았어...인간들은 우리를 공격하려는 거야</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어서 부족원들에게 알려야겠어 그리고 다른 부족에게도 </t>
-  </si>
-  <si>
-    <t>주황 호호부족 마을</t>
-  </si>
-  <si>
-    <t>족장님!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">호리야 돌아왔구나 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">네 족장님의 말씀이 옳았어요 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">잘은 모르겠지만 인간들이 만든 물체들은 저희를 공격하고 행성을 다치게 하고 있어요!  </t>
-  </si>
-  <si>
-    <t>슬프게도 내 예상이 맞았구나….</t>
-  </si>
-  <si>
-    <t>네…</t>
-  </si>
-  <si>
-    <t>호리야 어서 다른 부족들에게도 알려야 한다.</t>
-  </si>
-  <si>
-    <t>일이 잘못되면 우리 행성에 전쟁이 일어날지도 모르겠구나….</t>
-  </si>
-  <si>
-    <t>to be continued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지구에서 몇 광년 떨어진 곳에 아름다운 호호행성이 있었습니다. </t>
-  </si>
-  <si>
-    <t>Test_Map0</t>
-  </si>
-  <si>
-    <t>그럼 혹시 모르니 너에게 몸을 지킬 수 있는 방법을 알려주마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WASD를 이용하여 몸을 이동시키고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>space bar를 눌러 여우 구슬을 발사하렴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여우 구슬이여? 그게 뭐죠?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 부족들이 대대로 부족을 지키는 데 이용한 힘이란다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이 힘으로 부족을 지켜주렴 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네! 그럼 다녀오겠습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_Map1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -675,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -684,10 +697,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -699,13 +712,13 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -717,7 +730,7 @@
         <v>-100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -729,13 +742,13 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -747,7 +760,7 @@
         <v>-100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -759,13 +772,13 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -777,7 +790,7 @@
         <v>-100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -789,13 +802,13 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -807,7 +820,7 @@
         <v>-100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -819,13 +832,13 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -837,7 +850,7 @@
         <v>-100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -849,13 +862,13 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -867,7 +880,7 @@
         <v>-100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -879,13 +892,13 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -897,7 +910,7 @@
         <v>-100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -909,13 +922,13 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -927,7 +940,7 @@
         <v>-100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -939,13 +952,13 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -957,7 +970,7 @@
         <v>-100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -969,13 +982,13 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -987,7 +1000,7 @@
         <v>-100</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -999,13 +1012,13 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1017,7 +1030,7 @@
         <v>-100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1029,13 +1042,13 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1047,7 +1060,7 @@
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1059,13 +1072,13 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1077,7 +1090,7 @@
         <v>-100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1089,13 +1102,13 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1107,7 +1120,7 @@
         <v>-100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1119,13 +1132,13 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1137,7 +1150,7 @@
         <v>-100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1149,13 +1162,13 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1167,7 +1180,7 @@
         <v>-100</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1179,11 +1192,13 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1195,7 +1210,7 @@
         <v>-100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1207,13 +1222,13 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1225,7 +1240,7 @@
         <v>-100</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1236,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1257,7 +1272,7 @@
         <v>-100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1268,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1289,7 +1304,7 @@
         <v>-100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1300,16 +1315,16 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1321,7 +1336,7 @@
         <v>-100</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1332,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1353,7 +1368,7 @@
         <v>-100</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1364,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1385,7 +1400,7 @@
         <v>-100</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1396,16 +1411,16 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -1417,7 +1432,7 @@
         <v>-100</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1428,16 +1443,16 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1449,7 +1464,7 @@
         <v>-100</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1460,16 +1475,16 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -1481,7 +1496,7 @@
         <v>-100</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1492,16 +1507,16 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1513,7 +1528,7 @@
         <v>-100</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1524,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -1545,7 +1560,7 @@
         <v>-100</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1556,16 +1571,16 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -1577,7 +1592,7 @@
         <v>-100</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1588,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -1609,7 +1624,7 @@
         <v>-100</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1620,16 +1635,16 @@
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -1641,7 +1656,7 @@
         <v>-100</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1652,16 +1667,16 @@
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -1673,7 +1688,7 @@
         <v>-100</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1684,16 +1699,16 @@
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1705,7 +1720,7 @@
         <v>-100</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1716,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -1737,7 +1752,7 @@
         <v>-100</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1748,16 +1763,16 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1769,7 +1784,7 @@
         <v>-100</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -1780,16 +1795,16 @@
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -1801,7 +1816,7 @@
         <v>-100</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -1812,16 +1827,16 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -1833,7 +1848,7 @@
         <v>-100</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -1844,16 +1859,16 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -1865,7 +1880,7 @@
         <v>-100</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -1876,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -1897,7 +1912,7 @@
         <v>-100</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -1908,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -1929,7 +1944,7 @@
         <v>-100</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -1940,16 +1955,16 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -1961,7 +1976,7 @@
         <v>-100</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -1972,16 +1987,16 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -1993,7 +2008,7 @@
         <v>-100</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2004,16 +2019,16 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -2025,7 +2040,7 @@
         <v>-100</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2036,16 +2051,16 @@
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -2057,7 +2072,7 @@
         <v>-100</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2068,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -2089,7 +2104,7 @@
         <v>-100</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2100,16 +2115,16 @@
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -2121,7 +2136,7 @@
         <v>-100</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2132,16 +2147,16 @@
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2153,7 +2168,7 @@
         <v>-100</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2164,16 +2179,16 @@
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2185,7 +2200,7 @@
         <v>-100</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2196,16 +2211,16 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2217,7 +2232,7 @@
         <v>-100</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2228,16 +2243,16 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -2249,7 +2264,7 @@
         <v>-100</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2260,16 +2275,16 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2281,7 +2296,7 @@
         <v>-100</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2292,16 +2307,16 @@
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -2313,7 +2328,7 @@
         <v>-100</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2324,16 +2339,16 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -2345,7 +2360,7 @@
         <v>-100</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2356,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2377,7 +2392,7 @@
         <v>-100</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2388,16 +2403,16 @@
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2409,7 +2424,7 @@
         <v>-100</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -2420,16 +2435,16 @@
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -2441,7 +2456,7 @@
         <v>-100</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -2452,16 +2467,16 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2473,7 +2488,7 @@
         <v>-100</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2483,17 +2498,15 @@
       <c r="B59" s="1">
         <v>0</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2505,7 +2518,7 @@
         <v>-100</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -2516,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2537,7 +2550,7 @@
         <v>-100</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -2548,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -2569,7 +2582,7 @@
         <v>-100</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -2580,16 +2593,16 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -2601,7 +2614,7 @@
         <v>-100</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -2612,16 +2625,16 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -2633,7 +2646,7 @@
         <v>-100</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -2644,16 +2657,16 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
@@ -2665,7 +2678,7 @@
         <v>-100</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -2676,16 +2689,16 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -2697,7 +2710,7 @@
         <v>-100</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -2708,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -2729,7 +2742,7 @@
         <v>-100</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -2740,16 +2753,16 @@
         <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -2761,7 +2774,7 @@
         <v>-100</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -2772,16 +2785,16 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -2793,7 +2806,7 @@
         <v>-100</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -2804,16 +2817,16 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -2825,7 +2838,7 @@
         <v>-100</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">

--- a/Team_C_Algorithm_Project/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Team_C_Algorithm_Project/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488D976F-C567-41D2-B7A0-92B9D4D4EB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8CDBC2-DD2C-4C18-A3C1-C836676DF8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="99">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,9 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름_021</t>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,9 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>호호행성에서 사는 7개의 호호 부족은 서로를 도우며 행복하게 살고 있었지요</t>
-  </si>
-  <si>
     <t>하지만 어느날</t>
   </si>
   <si>
@@ -97,226 +91,305 @@
     <t>그것들은 크고 검었으며 이상한 소리를 내며 점점 호호행성으로 다가왔지요</t>
   </si>
   <si>
+    <t xml:space="preserve"> 아름다운 호호 행성을 보고 연구를 하고 싶다고 했습니다.</t>
+  </si>
+  <si>
+    <t>자신들과 다른 행성이 신기하다고 하며 말이죠</t>
+  </si>
+  <si>
+    <t>마음씨 착한 호호족들은 7부족끼리 회의를 열고 인간들을 환영했어요</t>
+  </si>
+  <si>
+    <t>하지만 누가 알았을까요 인간들이 사실은 자신들의 행성자원을 훔치기 위해 이곳에 왔다는 것을</t>
+  </si>
+  <si>
+    <t>호호 부족들도 모르는 사이 조금씩 하지만 빠르게 행성은 망가지기 시작했습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">호리야 </t>
+  </si>
+  <si>
+    <t>네 족장님!</t>
+  </si>
+  <si>
+    <t>어쩌면 그들에게 처음부터 그들을 이 행성에 들이는게 안됬다는 생각이 들어….</t>
+  </si>
+  <si>
+    <t>네 걱정 마세요 족장님!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">믿음직스럽구나 허허허 </t>
+  </si>
+  <si>
+    <t>하지만 만약 조금이라도 우리 행성과 부족에게 해가 될 낌세가 보인다면 바로 나에게 말해주렴….</t>
+  </si>
+  <si>
+    <t>네! 걱정 마세요 족장님!!!</t>
+  </si>
+  <si>
+    <t>으으으 너무 아팠어</t>
+  </si>
+  <si>
+    <t>대체 저건 뭐지?</t>
+  </si>
+  <si>
+    <t>예전에는 저런게 없었는데….</t>
+  </si>
+  <si>
+    <t>족장님!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">호리야 돌아왔구나 </t>
+  </si>
+  <si>
+    <t>슬프게도 내 예상이 맞았구나….</t>
+  </si>
+  <si>
+    <t>네…</t>
+  </si>
+  <si>
+    <t>호리야 어서 다른 부족들에게도 알려야 한다.</t>
+  </si>
+  <si>
+    <t>to be continued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지구에서 몇 광년 떨어진 곳에 아름다운 호호행성이 있었습니다. </t>
+  </si>
+  <si>
+    <t>그럼 혹시 모르니 너에게 몸을 지킬 수 있는 방법을 알려주마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WASD를 이용하여 몸을 이동시키고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>space bar를 눌러 여우 구슬을 발사하렴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 부족들이 대대로 부족을 지키는 데 이용한 힘이란다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이 힘으로 부족을 지켜주렴 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네! 그럼 다녀오겠습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲이 미묘하게 달라졌다는 것을 눈치챘습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호호족장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">잘은 모르겠지만 인간들이 만든 물체들은 저희를 공격하고 행성을 다치게 하고 있어요!  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">네 족장님의 말씀이 옳았어요 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 좀 더 살펴보고 족장님께 말씀드리러 가야겠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서 마을로 돌아가ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위이이잉 위이이잉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 소리지? 뭐가 위이잉거렸는데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 번 살펴봐야겠어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살아있는 것 같지는 않았는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위이이이이이이이잉!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리가….더 커졌어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근처에 얼마나 더 있는 거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 생각한 것보다 양이 많았어….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 숲에는 저런 이상한 것들이 없었는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아! 그리고 무언가로 숲이 막혀있었지….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">여우구슬로도 부술 수 없었어 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 인간들이 무언가 꾸미고 있는것 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헉헉 저.. 저건 뭐지 움직이잖아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 확인하려 가야겠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헉헉 저 물체들 점점 더 빨라지잖아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러고 보니… 인간들이 타고 온 물체랑 뭔가 비슷…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>족장님 말씀대로 인간들이 한게 분명해!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쾅! 위이이..익 끼이익 쿵! 위이이익 익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저건 대체!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헉헉 물리쳤다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설마 인간들은 우리를 공격하려는 거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 확실히 알았어...인간들은 우리를 공격하려는 거야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇지 않다면 저런 위험한 것을 만들리가 없지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서 마을로 돌아가 알려야겠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우 구슬이요? 그게 뭐죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호호행성에서 사는 7개 부족으로 이루어진 호호족들은 서로를 도우며 행복하게 살고 있었지요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 주호 부족에서 가장 용감한 호리를 보내 인간들이 무엇을 꾸미고 있는지 확인하기로 했지요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주호 부족장은 인간들이 온 이후 숲속의 동물들이 점점 사라지자 인간들을 의심했고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>그리고 이상한 물체들에서 생명체들이 내렸습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>그 생명체들은 자신들을 인간이라고 소개하며 호호족들에게 친철하게 말을 걸었습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">그들은 자신들이 먼 행성에서 온 과학자이며 연구를 하기위해 우주를 돌아다니다 호호 행성을 반견했고 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 아름다운 호호 행성을 보고 연구를 하고 싶다고 했습니다.</t>
-  </si>
-  <si>
-    <t>자신들과 다른 행성이 신기하다고 하며 말이죠</t>
-  </si>
-  <si>
-    <t>마음씨 착한 호호족들은 7부족끼리 회의를 열고 인간들을 환영했어요</t>
-  </si>
-  <si>
-    <t>하지만 누가 알았을까요 인간들이 사실은 자신들의 행성자원을 훔치기 위해 이곳에 왔다는 것을</t>
-  </si>
-  <si>
-    <t>호호 부족들도 모르는 사이 조금씩 하지만 빠르게 행성은 망가지기 시작했습니다.</t>
-  </si>
-  <si>
-    <t>그리고 이내 주황 호호 부족장이 인간들을 의심하기 시작했습니다.</t>
-  </si>
-  <si>
-    <t>하지만 아직 심증만 있었기 때문에 주황호호 부족장은 인간들을 감시하기로 마음을 먹었습니다.</t>
-  </si>
-  <si>
-    <t>그래서 주황 부족에서 가장 용감한 호리를 보내 인간들이 무엇을 꾸미고 있는지 확인하기로 했지요</t>
-  </si>
-  <si>
-    <t xml:space="preserve">호리야 </t>
-  </si>
-  <si>
-    <t>네 족장님!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">요즘 인간들의 움직임이 심상치가 않아 </t>
-  </si>
-  <si>
-    <t>어쩌면 그들에게 처음부터 그들을 이 행성에 들이는게 안됬다는 생각이 들어….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그들은 자신들이 먼 행성에서 온 과학자이며 연구를 하기위해 우주를 돌아다니다 호호 행성을 발견했고 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 인간들의 움직임이 심상치가 않아보이는 구나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>호리 니가 인간들을 감시하여 무엇을 꾸미고 있는지 알려주렴</t>
-  </si>
-  <si>
-    <t>네 걱정 마세요 족장님!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">믿음직스럽구나 허허허 </t>
-  </si>
-  <si>
-    <t>하지만 만약 조금이라도 우리 행성과 부족에게 해가 될 낌세가 보인다면 바로 나에게 말해주렴….</t>
-  </si>
-  <si>
-    <t>네! 걱정 마세요 족장님!!!</t>
-  </si>
-  <si>
-    <t>으으으 너무 아팠어</t>
-  </si>
-  <si>
-    <t>대체 저건 뭐지?</t>
-  </si>
-  <si>
-    <t>예전에는 저런게 없었는데….</t>
-  </si>
-  <si>
-    <t>위이이이이이이이잉</t>
-  </si>
-  <si>
-    <t>헉헉 인간들 도대체 뭘 하고 다니는 거야…</t>
-  </si>
-  <si>
-    <t>저 날라다니는 것들…. 위험했어……</t>
-  </si>
-  <si>
-    <t>부족이 위험할 수도 있으니 어서 돌아가서 알려드려야해!</t>
-  </si>
-  <si>
-    <t>인간들이 이상한 걸 만들고 그게 우리 부족을 공격한다는 것을!</t>
-  </si>
-  <si>
-    <t>삐삐</t>
-  </si>
-  <si>
-    <t>무슨 소리지?</t>
-  </si>
-  <si>
-    <t>삐빅 자 자원 삐 자원의 채굴을 시작합니다……</t>
-  </si>
-  <si>
-    <t>자원? 채굴? 이게 다 무슨…</t>
-  </si>
-  <si>
-    <t>가까이 가서 알아봐야겠어</t>
-  </si>
-  <si>
-    <t>헉!!!</t>
-  </si>
-  <si>
-    <t>저 저게 도대체 뭐야?!</t>
-  </si>
-  <si>
-    <t>삐유유웁 삐빅 인간이 아닌 다른 생명체 발견 발견</t>
-  </si>
-  <si>
-    <t>지금부터 제거 모드에 들어갑니다.</t>
-  </si>
-  <si>
-    <t>뭐?</t>
-  </si>
-  <si>
-    <t>헉헉 ㄷ드디어 물리쳤다.</t>
-  </si>
-  <si>
-    <t>그리고 확실히 알았어...인간들은 우리를 공격하려는 거야</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어서 부족원들에게 알려야겠어 그리고 다른 부족에게도 </t>
-  </si>
-  <si>
-    <t>주황 호호부족 마을</t>
-  </si>
-  <si>
-    <t>족장님!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">호리야 돌아왔구나 </t>
-  </si>
-  <si>
-    <t>슬프게도 내 예상이 맞았구나….</t>
-  </si>
-  <si>
-    <t>네…</t>
-  </si>
-  <si>
-    <t>호리야 어서 다른 부족들에게도 알려야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주호부족 마을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일이 잘못되면 우리 행성에 전쟁이 일어날지도 모르겠구나….</t>
-  </si>
-  <si>
-    <t>to be continued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지구에서 몇 광년 떨어진 곳에 아름다운 호호행성이 있었습니다. </t>
-  </si>
-  <si>
-    <t>그럼 혹시 모르니 너에게 몸을 지킬 수 있는 방법을 알려주마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WASD를 이용하여 몸을 이동시키고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>space bar를 눌러 여우 구슬을 발사하렴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여우 구슬이여? 그게 뭐죠?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 부족들이 대대로 부족을 지키는 데 이용한 힘이란다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이 힘으로 부족을 지켜주렴 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네! 그럼 다녀오겠습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_Map1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주황 호호 부족장은 인간들이 온 이후 숲속의 동물들이 점점 사라지자 인간들을 의심했고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숲이 미묘하게 달라졌다는 것을 눈치챘습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호호족장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">잘은 모르겠지만 인간들이 만든 물체들은 저희를 공격하고 행성을 다치게 하고 있어요!  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">네 족장님의 말씀이 옳았어요 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단 좀 더 살펴보고 족장님께 말씀드리러 가야겠어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼 일단 부족으로 돌아가야… 저건 뭐지!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 아직 심증만 있었기 때문에 주호 족장은 인간들을 감시하기로 마음을 먹었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 이내 주호족 족장이 인간들을 의심하기 시작했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
   </si>
 </sst>
 </file>
@@ -653,17 +726,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="57.375" customWidth="1"/>
+    <col min="4" max="4" width="73.625" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="25.125" customWidth="1"/>
     <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
@@ -688,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -697,10 +770,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -712,13 +785,13 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -730,7 +803,7 @@
         <v>-100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -742,13 +815,13 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -760,7 +833,7 @@
         <v>-100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -772,13 +845,13 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -790,7 +863,7 @@
         <v>-100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -802,13 +875,13 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -820,7 +893,7 @@
         <v>-100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -832,13 +905,13 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -850,7 +923,7 @@
         <v>-100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -862,13 +935,13 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -880,7 +953,7 @@
         <v>-100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -892,13 +965,13 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -910,7 +983,7 @@
         <v>-100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -922,13 +995,13 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -940,7 +1013,7 @@
         <v>-100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -952,13 +1025,13 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -970,7 +1043,7 @@
         <v>-100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -982,13 +1055,13 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1000,7 +1073,7 @@
         <v>-100</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1012,13 +1085,13 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1030,7 +1103,7 @@
         <v>-100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1042,13 +1115,13 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1060,7 +1133,7 @@
         <v>-100</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1072,13 +1145,13 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1090,7 +1163,7 @@
         <v>-100</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1102,13 +1175,13 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1120,7 +1193,7 @@
         <v>-100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1132,13 +1205,13 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1150,7 +1223,7 @@
         <v>-100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1162,13 +1235,13 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1180,7 +1253,7 @@
         <v>-100</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1192,13 +1265,13 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1210,7 +1283,7 @@
         <v>-100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1222,13 +1295,13 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1240,7 +1313,7 @@
         <v>-100</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1251,16 +1324,16 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1272,7 +1345,7 @@
         <v>-100</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1283,16 +1356,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1304,7 +1377,7 @@
         <v>-100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1315,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1336,7 +1409,7 @@
         <v>-100</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1347,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1368,7 +1441,7 @@
         <v>-100</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1379,16 +1452,16 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1400,7 +1473,7 @@
         <v>-100</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1411,16 +1484,16 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -1432,7 +1505,7 @@
         <v>-100</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1443,16 +1516,16 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1464,7 +1537,7 @@
         <v>-100</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1475,16 +1548,16 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -1496,7 +1569,7 @@
         <v>-100</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1507,16 +1580,16 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1528,7 +1601,7 @@
         <v>-100</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1539,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -1560,7 +1633,7 @@
         <v>-100</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1571,16 +1644,16 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -1592,7 +1665,7 @@
         <v>-100</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1603,16 +1676,16 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -1624,7 +1697,7 @@
         <v>-100</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1635,16 +1708,16 @@
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -1656,7 +1729,7 @@
         <v>-100</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1667,16 +1740,16 @@
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -1688,7 +1761,7 @@
         <v>-100</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1699,16 +1772,16 @@
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1720,7 +1793,7 @@
         <v>-100</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1731,16 +1804,16 @@
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -1752,7 +1825,7 @@
         <v>-100</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1763,16 +1836,16 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1784,7 +1857,7 @@
         <v>-100</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -1795,16 +1868,16 @@
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -1816,7 +1889,7 @@
         <v>-100</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -1827,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -1848,7 +1921,7 @@
         <v>-100</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -1859,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -1880,7 +1953,7 @@
         <v>-100</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -1891,16 +1964,16 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -1912,7 +1985,7 @@
         <v>-100</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -1923,16 +1996,16 @@
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -1944,7 +2017,7 @@
         <v>-100</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -1955,16 +2028,16 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -1976,7 +2049,7 @@
         <v>-100</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -1987,16 +2060,16 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -2008,7 +2081,7 @@
         <v>-100</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2019,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -2040,7 +2113,7 @@
         <v>-100</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2051,16 +2124,16 @@
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -2072,7 +2145,7 @@
         <v>-100</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2083,16 +2156,16 @@
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -2104,7 +2177,7 @@
         <v>-100</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2115,16 +2188,16 @@
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -2136,7 +2209,7 @@
         <v>-100</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2147,16 +2220,16 @@
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2168,7 +2241,7 @@
         <v>-100</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2179,16 +2252,16 @@
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2200,7 +2273,7 @@
         <v>-100</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2211,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2232,7 +2305,7 @@
         <v>-100</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2243,16 +2316,16 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -2264,7 +2337,7 @@
         <v>-100</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2275,16 +2348,16 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2296,7 +2369,7 @@
         <v>-100</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2307,16 +2380,16 @@
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -2328,7 +2401,7 @@
         <v>-100</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2339,16 +2412,16 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -2360,7 +2433,7 @@
         <v>-100</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2371,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2392,7 +2465,7 @@
         <v>-100</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2403,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2424,7 +2497,7 @@
         <v>-100</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -2435,16 +2508,16 @@
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -2456,7 +2529,7 @@
         <v>-100</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -2467,16 +2540,16 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2488,7 +2561,7 @@
         <v>-100</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2498,15 +2571,17 @@
       <c r="B59" s="1">
         <v>0</v>
       </c>
-      <c r="C59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D59" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2518,7 +2593,7 @@
         <v>-100</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -2529,16 +2604,16 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2550,7 +2625,7 @@
         <v>-100</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -2561,16 +2636,16 @@
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -2582,7 +2657,7 @@
         <v>-100</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -2593,16 +2668,16 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -2614,7 +2689,7 @@
         <v>-100</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -2625,16 +2700,16 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -2646,7 +2721,7 @@
         <v>-100</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -2657,16 +2732,16 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
@@ -2678,7 +2753,7 @@
         <v>-100</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -2689,16 +2764,16 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -2710,7 +2785,7 @@
         <v>-100</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -2721,16 +2796,16 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -2742,7 +2817,7 @@
         <v>-100</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -2753,16 +2828,16 @@
         <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -2774,7 +2849,7 @@
         <v>-100</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -2785,16 +2860,16 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -2806,7 +2881,7 @@
         <v>-100</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -2817,33 +2892,226 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
         <v>68</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0</v>
-      </c>
-      <c r="H69" s="1">
-        <v>-100</v>
-      </c>
       <c r="I69" s="1">
         <v>-100</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>69</v>
+      </c>
+      <c r="I70" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>70</v>
+      </c>
+      <c r="I71" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>71</v>
+      </c>
+      <c r="I72" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>72</v>
+      </c>
+      <c r="I73" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>73</v>
+      </c>
+      <c r="I74" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>74</v>
+      </c>
+      <c r="I75" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B77" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Team_C_Algorithm_Project/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Team_C_Algorithm_Project/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8CDBC2-DD2C-4C18-A3C1-C836676DF8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -70,18 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BackGround/00002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackGround/00004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하지만 어느날</t>
   </si>
   <si>
@@ -325,10 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>드론</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,12 +373,28 @@
   </si>
   <si>
     <t>Main</t>
+  </si>
+  <si>
+    <t>Character/00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/00000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -725,11 +724,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -785,13 +784,13 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -815,7 +814,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -841,11 +840,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -875,7 +874,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
@@ -901,11 +900,11 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -935,7 +934,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -961,11 +960,11 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -995,7 +994,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
@@ -1021,11 +1020,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
@@ -1055,13 +1054,13 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1081,11 +1080,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
@@ -1115,7 +1114,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
@@ -1141,11 +1140,11 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
@@ -1175,7 +1174,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>7</v>
@@ -1201,11 +1200,11 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
@@ -1235,7 +1234,7 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
@@ -1261,11 +1260,11 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>7</v>
@@ -1291,11 +1290,11 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>7</v>
@@ -1321,19 +1320,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1356,16 +1355,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1385,16 +1384,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>7</v>
@@ -1417,16 +1416,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>7</v>
@@ -1449,16 +1448,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>7</v>
@@ -1484,13 +1483,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>7</v>
@@ -1513,16 +1512,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>7</v>
@@ -1545,16 +1544,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>7</v>
@@ -1580,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>7</v>
@@ -1609,16 +1608,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>7</v>
@@ -1641,16 +1640,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>7</v>
@@ -1673,16 +1672,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>7</v>
@@ -1708,13 +1707,13 @@
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>7</v>
@@ -1737,16 +1736,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>7</v>
@@ -1769,16 +1768,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>7</v>
@@ -1804,16 +1803,16 @@
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -1825,7 +1824,7 @@
         <v>-100</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1836,16 +1835,16 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1868,13 +1867,13 @@
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>7</v>
@@ -1900,13 +1899,13 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>7</v>
@@ -1932,16 +1931,16 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -1953,7 +1952,7 @@
         <v>-100</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -1964,16 +1963,16 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -1996,13 +1995,13 @@
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>7</v>
@@ -2028,13 +2027,13 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>7</v>
@@ -2060,13 +2059,13 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>7</v>
@@ -2092,13 +2091,13 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>7</v>
@@ -2124,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>7</v>
@@ -2153,16 +2152,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>7</v>
@@ -2188,13 +2187,13 @@
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -2220,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2241,7 +2240,7 @@
         <v>-100</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2252,16 +2251,16 @@
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2284,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>7</v>
@@ -2313,16 +2312,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>7</v>
@@ -2348,13 +2347,13 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>7</v>
@@ -2380,13 +2379,13 @@
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>7</v>
@@ -2412,16 +2411,16 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -2433,7 +2432,7 @@
         <v>-100</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2444,16 +2443,16 @@
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2476,13 +2475,13 @@
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>7</v>
@@ -2508,13 +2507,13 @@
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>7</v>
@@ -2540,13 +2539,13 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>7</v>
@@ -2569,16 +2568,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>7</v>
@@ -2604,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2625,7 +2624,7 @@
         <v>-100</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -2636,16 +2635,16 @@
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -2668,13 +2667,13 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>7</v>
@@ -2700,13 +2699,13 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>7</v>
@@ -2732,13 +2731,13 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>7</v>
@@ -2764,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>7</v>
@@ -2796,13 +2795,13 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>7</v>
@@ -2825,16 +2824,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>7</v>
@@ -2860,13 +2859,13 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>7</v>
@@ -2892,13 +2891,13 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>7</v>
@@ -2921,16 +2920,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>7</v>
@@ -2956,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>7</v>
@@ -2985,16 +2984,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>7</v>
@@ -3017,16 +3016,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>7</v>
@@ -3052,13 +3051,13 @@
         <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>7</v>
@@ -3084,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>7</v>
@@ -3102,7 +3101,7 @@
         <v>-100</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">

--- a/Team_C_Algorithm_Project/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Team_C_Algorithm_Project/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="100">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,6 +388,10 @@
   </si>
   <si>
     <t>네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/00002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2161,7 +2165,7 @@
         <v>52</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>7</v>
@@ -2321,7 +2325,7 @@
         <v>57</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>7</v>
@@ -2577,7 +2581,7 @@
         <v>71</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>7</v>
@@ -2762,9 +2766,7 @@
       <c r="B65" s="1">
         <v>0</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
         <v>90</v>
       </c>
